--- a/Code/회원가입/Test_Case_Login_Join.xlsx
+++ b/Code/회원가입/Test_Case_Login_Join.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\babalzza-master\Code\회원가입\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4640160-A286-4FF2-9987-A3C3FF8E3F41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2BC0C-9623-454D-B8BA-7C400739A56A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,18 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ValidationController.check_USERID, UserInformationController.getUserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValidationController.check_NICKNAME, UserInformationController.getUserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserInformation.getAllUsers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Join_1.next</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,14 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserInformationController.insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserInformation.insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startScoreAdjustment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,7 +306,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(미정)</t>
+    <t>RecommendController.clearMenuScore, RecommendController.insertMenuScore()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendController.insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidationController.check_NICKNAME, RecommendController.UserByUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidationController.check_USERID, RecommendController.UserByUserEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.getEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.getName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.getEmail, User.getName, User.getPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuScore.getUser_id, MenuScore.getMenu_id, MenuScore.getScore, MenuScore.getRecentassign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -703,8 +711,8 @@
     <col min="3" max="3" width="20.09765625" customWidth="1"/>
     <col min="4" max="4" width="43.09765625" customWidth="1"/>
     <col min="5" max="5" width="36.09765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
-    <col min="7" max="7" width="32.796875" customWidth="1"/>
+    <col min="6" max="6" width="75.3984375" customWidth="1"/>
+    <col min="7" max="7" width="83.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -735,16 +743,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -755,10 +763,10 @@
         <v>54</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -766,10 +774,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -777,10 +785,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -789,10 +797,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -801,10 +809,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -813,10 +821,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -825,10 +833,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -837,39 +845,39 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
